--- a/数据整理/stocks/A股/上证主板/601916-浙商银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601916-浙商银行.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>14.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>36.57</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.37</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3472</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007735</t>
+          <t>001570</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰民安回报一年定期开放混合C</t>
+          <t>南方利安灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>36.57</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>24.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>23.44</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001505</t>
+          <t>007735</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方利众灵活配置混合C</t>
+          <t>金鹰民安回报一年定期开放混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23.44</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>36.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001570</t>
+          <t>001505</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方利安灵活配置混合A</t>
+          <t>南方利众灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24.98</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>24.98</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.18</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -716,15 +796,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>23.90</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>0.93</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -744,15 +834,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>23.90</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>0.93</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601916-浙商银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601916-浙商银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001334</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010074</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方誉隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001503</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010075</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方誉隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601916-浙商银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601916-浙商银行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1106,4 +1107,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010074</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方誉隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010075</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方誉隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601916-浙商银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601916-浙商银行.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1277,4 +1278,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601916-浙商银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601916-浙商银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1286,7 +1287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,17 +1298,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1317,14 +1338,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.15</v>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1333,14 +1376,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -1349,14 +1482,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="5">
@@ -1365,13 +1498,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601916-浙商银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601916-浙商银行.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1419,7 +1420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1430,17 +1431,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1450,14 +1471,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1466,14 +1509,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -1482,14 +1615,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -1498,14 +1631,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="6">
@@ -1514,13 +1647,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601916-浙商银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601916-浙商银行.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1552,7 +1553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1563,17 +1564,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1583,14 +1604,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1599,14 +1642,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.11</v>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1615,14 +1680,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.15</v>
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>31.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1631,14 +1718,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>31.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="6">
@@ -1647,14 +1856,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="7">
@@ -1663,13 +1872,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601916-浙商银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601916-浙商银行.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="4">
@@ -520,7 +521,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -600,6 +617,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -800,138 +949,6 @@
       </c>
       <c r="H5" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515760</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏中证浙江国资创新发展ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.73</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0802</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>512190</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.94</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0326</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1006,22 +1023,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.37</t>
+          <t>98.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0827</t>
+          <t>0.0802</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1044,22 +1061,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.93</t>
+          <t>98.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0301</t>
+          <t>0.0326</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1072,6 +1089,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1241,7 +1390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1487,7 +1636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1619,7 +1768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601916-浙商银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601916-浙商银行.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="5">
@@ -537,7 +538,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -616,7 +633,613 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>36.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3472</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001570</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方利安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001335</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>36.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001505</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001580</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方利安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001067</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009635</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009634</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009233</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -748,7 +1371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -949,138 +1572,6 @@
       </c>
       <c r="H5" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515760</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏中证浙江国资创新发展ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.73</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0802</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>512190</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.94</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0326</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1155,22 +1646,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.37</t>
+          <t>98.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0827</t>
+          <t>0.0802</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1193,22 +1684,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.93</t>
+          <t>98.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0301</t>
+          <t>0.0326</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1221,6 +1712,138 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1390,7 +2013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1636,7 +2259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1766,288 +2389,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006972</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>金鹰民安回报一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>14.65</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>36.57</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3472</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001570</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方利安灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>24.98</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0778</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001335</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方利众灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.93</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>23.44</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0436</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007735</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>金鹰民安回报一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>36.57</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0334</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001505</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方利众灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>23.44</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0169</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001580</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>南方利安灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>24.98</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0107</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>